--- a/RailsClient/uploadfiles/template/move_inventory_template.xlsx
+++ b/RailsClient/uploadfiles/template/move_inventory_template.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>源仓库</t>
   </si>
@@ -26,9 +26,6 @@
   </si>
   <si>
     <t>唯一码</t>
-  </si>
-  <si>
-    <t>包装号</t>
   </si>
   <si>
     <t>零件号</t>
@@ -56,6 +53,7 @@
   <fonts count="5">
     <font>
       <name val="文泉驿正黑"/>
+      <charset val="1"/>
       <family val="2"/>
       <sz val="10"/>
     </font>
@@ -76,6 +74,7 @@
     </font>
     <font>
       <name val="Arial"/>
+      <charset val="1"/>
       <family val="2"/>
       <sz val="10"/>
     </font>
@@ -142,23 +141,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B7" activeCellId="0" pane="topLeft" sqref="B7"/>
+      <selection activeCell="D1" activeCellId="0" pane="topLeft" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.7098039215686"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.9764705882353"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.2627450980392"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.7254901960784"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="10.7098039215686"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.1686274509804"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="10.7098039215686"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.7686274509804"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.0588235294118"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.3333333333333"/>
+    <col collapsed="false" hidden="false" max="6" min="4" style="0" width="10.7686274509804"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.243137254902"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="10.7686274509804"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -174,17 +172,14 @@
       <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="0" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -205,17 +200,17 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.7098039215686"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.7686274509804"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12页 &amp;P</oddFooter>
@@ -230,17 +225,17 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.7098039215686"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.7686274509804"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12页 &amp;P</oddFooter>
